--- a/ML_outputs/1/outputshighlight_tomato/KMeansSegmentation/highlight_tomato_metrics.xlsx
+++ b/ML_outputs/1/outputshighlight_tomato/KMeansSegmentation/highlight_tomato_metrics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\UrcaDLML\outputs\7\outputshighlight_tomato\KMeansSegmentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\UrcaDLML\ML_outputs\1\outputshighlight_tomato\KMeansSegmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CB7333-C7CC-4C69-A120-46901C3FC8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E55B32-F235-431F-A045-F8A1EB4D8B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,11 +432,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
